--- a/График проверки регистраторов в авто.xlsx
+++ b/График проверки регистраторов в авто.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___MyDocuments___\Регистраторы\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$AI$20</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -141,11 +146,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +283,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,9 +369,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,6 +404,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -565,15 +580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -582,7 +596,7 @@
     <col min="35" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.75">
+    <row r="1" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
@@ -621,7 +635,7 @@
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
     </row>
-    <row r="2" spans="1:35" ht="18.75">
+    <row r="2" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -658,7 +672,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="1:35" s="4" customFormat="1" hidden="1">
+    <row r="3" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -765,7 +779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" hidden="1">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>4711</v>
       </c>
@@ -873,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" hidden="1">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4253</v>
       </c>
@@ -981,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" hidden="1">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>8933</v>
       </c>
@@ -1022,7 +1036,7 @@
         <v>34</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>34</v>
@@ -1086,10 +1100,10 @@
       </c>
       <c r="AI6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6172</v>
       </c>
@@ -1135,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" hidden="1">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4994</v>
       </c>
@@ -1183,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" hidden="1">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>4995</v>
       </c>
@@ -1231,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" hidden="1">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6130</v>
       </c>
@@ -1279,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" hidden="1">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>6129</v>
       </c>
@@ -1327,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2831</v>
       </c>
@@ -1373,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" hidden="1">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>7945</v>
       </c>
@@ -1481,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" hidden="1">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2961</v>
       </c>
@@ -1541,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" hidden="1">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2962</v>
       </c>
@@ -1607,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2963</v>
       </c>
@@ -1663,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" hidden="1">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>4309</v>
       </c>
@@ -1713,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" hidden="1">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" hidden="1">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>1276</v>
       </c>
@@ -1871,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1882,7 +1896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
@@ -1894,15 +1908,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AI20">
-    <filterColumn colId="11"/>
-    <filterColumn colId="12">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="34">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AI20"/>
   <mergeCells count="1">
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
@@ -1912,24 +1918,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
